--- a/piano_progetto/Preventivo/Effettivo/PreventivoFinire.xlsx
+++ b/piano_progetto/Preventivo/Effettivo/PreventivoFinire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\piano_progetto\Preventivo\Effettivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StefanoPanozzo\Documents\GitHub\Marvin\piano_progetto\Preventivo\Effettivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06709D11-159C-41DB-88E4-49191446030D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55567980-A037-48CC-96FE-A6EC80BA7A78}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ruolo</t>
   </si>
@@ -63,22 +63,40 @@
     <t>Costo Consuntivo(€)</t>
   </si>
   <si>
-    <t>220 (-30)</t>
-  </si>
-  <si>
-    <t>180 (+30)</t>
-  </si>
-  <si>
-    <t>714 (-)</t>
-  </si>
-  <si>
-    <t>4.840 (-660)</t>
-  </si>
-  <si>
-    <t>2.700 (+450)</t>
-  </si>
-  <si>
-    <t>13.235 (-210)</t>
+    <t>29 (-1)</t>
+  </si>
+  <si>
+    <t>223 (+3)</t>
+  </si>
+  <si>
+    <t>236 (-14)</t>
+  </si>
+  <si>
+    <t>171 (+21)</t>
+  </si>
+  <si>
+    <t>580 (-20)</t>
+  </si>
+  <si>
+    <t>5.192 (-308)</t>
+  </si>
+  <si>
+    <t>2.565 (+315)</t>
+  </si>
+  <si>
+    <t>3.345 (+45)</t>
+  </si>
+  <si>
+    <t>33 (-6)</t>
+  </si>
+  <si>
+    <t>717 (+3)</t>
+  </si>
+  <si>
+    <t>990 (-180)</t>
+  </si>
+  <si>
+    <t>13.297 (-88)</t>
   </si>
 </sst>
 </file>
@@ -559,7 +577,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,16 +609,15 @@
       <c r="B2" s="1">
         <v>39</v>
       </c>
-      <c r="C2" s="1">
-        <v>39</v>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="11">
         <f>30*B2</f>
         <v>1170</v>
       </c>
-      <c r="E2" s="11">
-        <f>30*C2</f>
-        <v>1170</v>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -618,7 +635,6 @@
         <v>625</v>
       </c>
       <c r="E3" s="15">
-        <f>25*C3</f>
         <v>625</v>
       </c>
     </row>
@@ -630,14 +646,14 @@
         <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="11">
         <f>22*B4</f>
         <v>5500</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -647,16 +663,15 @@
       <c r="B5" s="7">
         <v>30</v>
       </c>
-      <c r="C5" s="7">
-        <v>30</v>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="16">
         <f>20*B5</f>
         <v>600</v>
       </c>
-      <c r="E5" s="16">
-        <f>20*C5</f>
-        <v>600</v>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,14 +682,14 @@
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="11">
         <f>15*B6</f>
         <v>2250</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,16 +699,15 @@
       <c r="B7" s="9">
         <v>220</v>
       </c>
-      <c r="C7" s="9">
-        <v>220</v>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="17">
         <f>15*B7</f>
         <v>3300</v>
       </c>
-      <c r="E7" s="17">
-        <f>15*C7</f>
-        <v>3300</v>
+      <c r="E7" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
@@ -705,14 +719,14 @@
         <v>714</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="14">
         <f>SUM(D2:D7)</f>
         <v>13445</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/piano_progetto/Preventivo/Effettivo/PreventivoFinire.xlsx
+++ b/piano_progetto/Preventivo/Effettivo/PreventivoFinire.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StefanoPanozzo\Documents\GitHub\Marvin\piano_progetto\Preventivo\Effettivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\piano_progetto\Preventivo\Effettivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55567980-A037-48CC-96FE-A6EC80BA7A78}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1560F8-3261-43BF-8501-C2C6CAC3A834}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -96,7 +96,7 @@
     <t>990 (-180)</t>
   </si>
   <si>
-    <t>13.297 (-88)</t>
+    <t>13.297 (-148)</t>
   </si>
 </sst>
 </file>
